--- a/va_facility_data_2025-02-20/Homestead VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Homestead%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Homestead VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Homestead%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R6a115be822214d01b7827ff6e1fc67be"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra88f084f750a40a2a1217b5937c04cfa"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R982a2bac4af842d4a2d28f1c85d4718c"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rb6d72c63410a4a3ea1e1c9ef4c5c97a2"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R7f309e897c22411f80c10600cf4d7689"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R2ba4720a38884dce81d02675138cb3f5"/>
   </x:sheets>
 </x:workbook>
 </file>
